--- a/Nl_Ger.xlsx
+++ b/Nl_Ger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BD2EE5-28B5-4A12-85C7-6282C7B32618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CC50B3-BF2B-4514-A6A7-A573B372F870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1452,8 +1452,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F564F-49FE-495A-93C9-600CBDB87EF3}">
   <dimension ref="A1:AR595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C576" workbookViewId="0">
-      <selection activeCell="AT593" sqref="AT593"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="T1" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34663,7 +34665,7 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="AQ293">
-        <f t="shared" si="15"/>
+        <f>E290</f>
         <v>334585</v>
       </c>
       <c r="AR293">
@@ -34767,7 +34769,7 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="AQ294">
-        <f t="shared" si="15"/>
+        <f>E291</f>
         <v>341223</v>
       </c>
       <c r="AR294">
